--- a/ModelTraining/Models/KNN/KNNRegressorBenchmark.xlsx
+++ b/ModelTraining/Models/KNN/KNNRegressorBenchmark.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.755792592592592</v>
+        <v>12.66339259259259</v>
       </c>
       <c r="F2" t="n">
-        <v>1.340444444444444</v>
+        <v>1.725244444444445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5549538023436225</v>
+        <v>-0.03344951089196524</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.761733333333333</v>
+        <v>12.66056296296296</v>
       </c>
       <c r="F3" t="n">
-        <v>1.341777777777778</v>
+        <v>1.725111111111111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.554612908225276</v>
+        <v>-0.03321858704313385</v>
       </c>
     </row>
     <row r="4">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7.759674074074074</v>
+        <v>12.6610962962963</v>
       </c>
       <c r="F4" t="n">
-        <v>1.341377777777778</v>
+        <v>1.725377777777778</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5547310735181692</v>
+        <v>-0.03326211195704976</v>
       </c>
     </row>
     <row r="5">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.044438167133849</v>
+        <v>13.05798737384537</v>
       </c>
       <c r="F5" t="n">
-        <v>1.326380583379606</v>
+        <v>1.705089338375171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5383906189053989</v>
+        <v>-0.06565208067762773</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.04758909220258</v>
+        <v>13.05530945381646</v>
       </c>
       <c r="F6" t="n">
-        <v>1.327265399717012</v>
+        <v>1.704919375040773</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5382098111795349</v>
+        <v>-0.06543353773000549</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8.047152449780429</v>
+        <v>13.05530945381646</v>
       </c>
       <c r="F7" t="n">
-        <v>1.327081496192948</v>
+        <v>1.704919375040773</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5382348667811893</v>
+        <v>-0.06543353773000549</v>
       </c>
     </row>
     <row r="8">
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.150608</v>
+        <v>11.51160266666667</v>
       </c>
       <c r="F8" t="n">
-        <v>1.31272</v>
+        <v>1.70644</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5896807626894669</v>
+        <v>0.06054715918637621</v>
       </c>
     </row>
     <row r="9">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.151277333333334</v>
+        <v>11.51160266666667</v>
       </c>
       <c r="F9" t="n">
-        <v>1.312173333333333</v>
+        <v>1.706573333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5896423547187265</v>
+        <v>0.06054715918637621</v>
       </c>
     </row>
     <row r="10">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.149370666666666</v>
+        <v>11.51148266666667</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3124</v>
+        <v>1.706613333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5897517638784053</v>
+        <v>0.06055695229200742</v>
       </c>
     </row>
     <row r="11">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.437461398539044</v>
+        <v>12.01697927585532</v>
       </c>
       <c r="F11" t="n">
-        <v>1.296803010996871</v>
+        <v>1.686726009705235</v>
       </c>
       <c r="G11" t="n">
-        <v>0.573220418658795</v>
+        <v>0.01930377154255025</v>
       </c>
     </row>
     <row r="12">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.439380972384935</v>
+        <v>12.01688363015876</v>
       </c>
       <c r="F12" t="n">
-        <v>1.296809666458812</v>
+        <v>1.686736041782117</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5731102688538543</v>
+        <v>0.01931157711262943</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.437840517443166</v>
+        <v>12.0165932839573</v>
       </c>
       <c r="F13" t="n">
-        <v>1.29678066061804</v>
+        <v>1.686701250062081</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5731986638961805</v>
+        <v>0.01933527203780017</v>
       </c>
     </row>
     <row r="14">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.727281333333333</v>
+        <v>10.807584</v>
       </c>
       <c r="F14" t="n">
-        <v>1.272466666666667</v>
+        <v>1.68992</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6139722739847129</v>
+        <v>0.1180015689273384</v>
       </c>
     </row>
     <row r="15">
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.727836666666667</v>
+        <v>10.805792</v>
       </c>
       <c r="F15" t="n">
-        <v>1.272486666666667</v>
+        <v>1.689786666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6139404076105828</v>
+        <v>0.1181478126380958</v>
       </c>
     </row>
     <row r="16">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.726422666666666</v>
+        <v>10.80500133333334</v>
       </c>
       <c r="F16" t="n">
-        <v>1.272426666666667</v>
+        <v>1.689853333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6140215463615193</v>
+        <v>0.1182123383229761</v>
       </c>
     </row>
     <row r="17">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.992351583804822</v>
+        <v>11.23820993432772</v>
       </c>
       <c r="F17" t="n">
-        <v>1.260095961066823</v>
+        <v>1.66213077382702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5987618998448954</v>
+        <v>0.08285852507440605</v>
       </c>
     </row>
     <row r="18">
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6.992640087183596</v>
+        <v>11.23719499019746</v>
       </c>
       <c r="F18" t="n">
-        <v>1.260121698100327</v>
+        <v>1.661961733207851</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5987453448209952</v>
+        <v>0.08294135386671719</v>
       </c>
     </row>
     <row r="19">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.99248315066598</v>
+        <v>11.23648262536601</v>
       </c>
       <c r="F19" t="n">
-        <v>1.260139906481528</v>
+        <v>1.661990930322566</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5987543502191676</v>
+        <v>0.08299948940040203</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.579922666666667</v>
+        <v>10.55505983333333</v>
       </c>
       <c r="F20" t="n">
-        <v>1.230986666666667</v>
+        <v>1.69519</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6224280718298423</v>
+        <v>0.1386098675820544</v>
       </c>
     </row>
     <row r="21">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.5800355</v>
+        <v>10.55576883333333</v>
       </c>
       <c r="F21" t="n">
-        <v>1.230796666666667</v>
+        <v>1.69523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6224215971793962</v>
+        <v>0.1385520066496176</v>
       </c>
     </row>
     <row r="22">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.579219</v>
+        <v>10.556425</v>
       </c>
       <c r="F22" t="n">
-        <v>1.230753333333334</v>
+        <v>1.695233333333333</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6224684499305557</v>
+        <v>0.1384984574039655</v>
       </c>
     </row>
     <row r="23">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.803101940941393</v>
+        <v>10.87598456480181</v>
       </c>
       <c r="F23" t="n">
-        <v>1.227815385787222</v>
+        <v>1.649513239720326</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6096215035486661</v>
+        <v>0.1124194526245936</v>
       </c>
     </row>
     <row r="24">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6.803064491625944</v>
+        <v>10.87659164397954</v>
       </c>
       <c r="F24" t="n">
-        <v>1.227752269868107</v>
+        <v>1.6495658273368</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6096236524812537</v>
+        <v>0.1123699093703109</v>
       </c>
     </row>
     <row r="25">
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.802347134348564</v>
+        <v>10.87640283862705</v>
       </c>
       <c r="F25" t="n">
-        <v>1.227681732780553</v>
+        <v>1.649517985825406</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6096648161824291</v>
+        <v>0.1123853176266498</v>
       </c>
     </row>
     <row r="26">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6.600472746666666</v>
+        <v>10.55603874666667</v>
       </c>
       <c r="F26" t="n">
-        <v>1.226333333333333</v>
+        <v>1.726937333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6212488583766267</v>
+        <v>0.1385299792347461</v>
       </c>
     </row>
     <row r="27">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.600473253333334</v>
+        <v>10.55567253333333</v>
       </c>
       <c r="F27" t="n">
-        <v>1.226366666666667</v>
+        <v>1.726928</v>
       </c>
       <c r="G27" t="n">
-        <v>0.621248829302864</v>
+        <v>0.1385598656168866</v>
       </c>
     </row>
     <row r="28">
@@ -1185,13 +1185,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.600206213333333</v>
+        <v>10.5555852</v>
       </c>
       <c r="F28" t="n">
-        <v>1.226334666666667</v>
+        <v>1.726884</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6212641527060112</v>
+        <v>0.1385669928215403</v>
       </c>
     </row>
     <row r="29">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.757109151297576</v>
+        <v>10.74822670683174</v>
       </c>
       <c r="F29" t="n">
-        <v>1.213334990466838</v>
+        <v>1.655656591032269</v>
       </c>
       <c r="G29" t="n">
-        <v>0.61226068141556</v>
+        <v>0.1228456709437671</v>
       </c>
     </row>
     <row r="30">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6.757119579111381</v>
+        <v>10.74794325744123</v>
       </c>
       <c r="F30" t="n">
-        <v>1.213342237153342</v>
+        <v>1.655648019551619</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6122600830423017</v>
+        <v>0.1228688030256203</v>
       </c>
     </row>
     <row r="31">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.757059814534078</v>
+        <v>10.74797729099025</v>
       </c>
       <c r="F31" t="n">
-        <v>1.213328258077814</v>
+        <v>1.65564050323588</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6122635124787605</v>
+        <v>0.1228660255744491</v>
       </c>
     </row>
   </sheetData>
